--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>STCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1600</v>
       </c>
       <c r="M8" s="3">
         <v>1600</v>
       </c>
       <c r="N8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,28 +790,28 @@
         <v>2000</v>
       </c>
       <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1200</v>
       </c>
       <c r="I9" s="3">
         <v>1200</v>
       </c>
       <c r="J9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1200</v>
       </c>
       <c r="M9" s="3">
         <v>1200</v>
@@ -814,57 +820,63 @@
         <v>1200</v>
       </c>
       <c r="O9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>400</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,22 +893,23 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -904,11 +917,11 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,20 +1002,20 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,37 +1097,38 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1600</v>
       </c>
       <c r="M17" s="3">
         <v>1600</v>
@@ -1111,57 +1137,63 @@
         <v>1600</v>
       </c>
       <c r="O17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1208,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1222,52 +1255,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,7 +1314,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,11 +1414,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1381,25 +1426,28 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,20 +1490,23 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1466,40 +1517,43 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1510,28 +1564,31 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1603,8 +1663,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1736,11 +1805,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1750,20 +1819,23 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1774,28 +1846,31 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,20 +1913,23 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1862,77 +1940,83 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,19 +2062,19 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2003,16 +2089,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,96 +2144,105 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>1000</v>
       </c>
       <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>900</v>
       </c>
       <c r="M43" s="3">
         <v>900</v>
       </c>
       <c r="N43" s="3">
+        <v>900</v>
+      </c>
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>600</v>
       </c>
       <c r="P43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3200</v>
       </c>
       <c r="F44" s="3">
         <v>3200</v>
       </c>
       <c r="G44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2160,8 +2258,8 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2172,8 +2270,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,43 +2297,46 @@
         <v>4900</v>
       </c>
       <c r="E46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3300</v>
       </c>
       <c r="K46" s="3">
         <v>3300</v>
       </c>
       <c r="L46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2391,7 @@
         <v>1500</v>
       </c>
       <c r="E48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
         <v>1600</v>
@@ -2296,19 +2403,19 @@
         <v>1600</v>
       </c>
       <c r="I48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J48" s="3">
         <v>1700</v>
       </c>
       <c r="K48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L48" s="3">
         <v>1800</v>
       </c>
       <c r="M48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="N48" s="3">
         <v>1900</v>
@@ -2317,10 +2424,13 @@
         <v>1900</v>
       </c>
       <c r="P48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2579,7 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2469,7 +2588,7 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -2478,11 +2597,11 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
@@ -2490,13 +2609,16 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2673,46 @@
         <v>6900</v>
       </c>
       <c r="E54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F54" s="3">
         <v>6800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5700</v>
       </c>
       <c r="K54" s="3">
         <v>5700</v>
       </c>
       <c r="L54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M54" s="3">
         <v>5900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2748,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1300</v>
       </c>
       <c r="H57" s="3">
         <v>1300</v>
       </c>
       <c r="I57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1300</v>
       </c>
       <c r="K57" s="3">
         <v>1300</v>
@@ -2655,45 +2785,48 @@
         <v>1300</v>
       </c>
       <c r="N57" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="O57" s="3">
         <v>1000</v>
       </c>
       <c r="P57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2000</v>
       </c>
       <c r="I58" s="3">
         <v>2000</v>
       </c>
       <c r="J58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
@@ -2705,10 +2838,13 @@
         <v>800</v>
       </c>
       <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2731,16 +2867,16 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2751,25 +2887,28 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3900</v>
       </c>
       <c r="F60" s="3">
         <v>3900</v>
       </c>
       <c r="G60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H60" s="3">
         <v>3100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3200</v>
       </c>
       <c r="I60" s="3">
         <v>3200</v>
@@ -2778,54 +2917,57 @@
         <v>3200</v>
       </c>
       <c r="K60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L60" s="3">
         <v>3300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2200</v>
       </c>
       <c r="M60" s="3">
         <v>2200</v>
       </c>
       <c r="N60" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="O60" s="3">
         <v>1900</v>
       </c>
       <c r="P60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1500</v>
       </c>
       <c r="I61" s="3">
         <v>1500</v>
       </c>
       <c r="J61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2800</v>
       </c>
       <c r="M61" s="3">
         <v>2800</v>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E66" s="3">
         <v>5600</v>
       </c>
       <c r="F66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G66" s="3">
         <v>5700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4800</v>
       </c>
       <c r="H66" s="3">
         <v>4800</v>
       </c>
       <c r="I66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>4700</v>
       </c>
       <c r="O66" s="3">
         <v>4700</v>
       </c>
       <c r="P66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,19 +3423,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1300</v>
       </c>
       <c r="G72" s="3">
         <v>-1300</v>
@@ -3274,16 +3447,16 @@
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-600</v>
       </c>
       <c r="M72" s="3">
         <v>-600</v>
@@ -3292,13 +3465,16 @@
         <v>-600</v>
       </c>
       <c r="O72" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="P72" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>800</v>
       </c>
       <c r="H76" s="3">
         <v>800</v>
       </c>
       <c r="I76" s="3">
+        <v>800</v>
+      </c>
+      <c r="J76" s="3">
         <v>700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>800</v>
       </c>
       <c r="K76" s="3">
         <v>800</v>
       </c>
       <c r="L76" s="3">
+        <v>800</v>
+      </c>
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>800</v>
       </c>
       <c r="P76" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,69 +3705,75 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3590,28 +3784,31 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4105,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3928,16 +4144,19 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,35 +4173,36 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3992,14 +4212,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,23 +4312,26 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4125,13 +4354,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4566,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4363,13 +4608,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,22 +4660,25 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -4445,15 +4696,18 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>STCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,163 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1600</v>
       </c>
       <c r="N8" s="3">
         <v>1600</v>
       </c>
       <c r="O8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="E9" s="3">
         <v>2000</v>
       </c>
       <c r="F9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1200</v>
       </c>
       <c r="J9" s="3">
         <v>1200</v>
       </c>
       <c r="K9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1200</v>
       </c>
       <c r="N9" s="3">
         <v>1200</v>
@@ -823,60 +830,66 @@
         <v>1200</v>
       </c>
       <c r="P9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,25 +907,26 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -920,11 +934,11 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,20 +1025,20 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,40 +1124,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1600</v>
       </c>
       <c r="N17" s="3">
         <v>1600</v>
@@ -1140,60 +1167,66 @@
         <v>1600</v>
       </c>
       <c r="P17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1244,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1258,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,7 +1357,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1352,60 +1392,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1417,11 +1463,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1429,25 +1475,28 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,14 +1554,14 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1520,28 +1572,31 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,14 +1604,14 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1567,28 +1622,31 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1666,8 +1727,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1808,11 +1878,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1822,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,14 +1904,14 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1849,28 +1922,31 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,14 +2004,14 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1943,80 +2022,86 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,31 +2139,32 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2092,16 +2179,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,102 +2237,111 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1000</v>
       </c>
       <c r="I43" s="3">
         <v>1000</v>
       </c>
       <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>900</v>
       </c>
       <c r="N43" s="3">
         <v>900</v>
       </c>
       <c r="O43" s="3">
+        <v>900</v>
+      </c>
+      <c r="P43" s="3">
         <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>600</v>
       </c>
       <c r="Q43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
         <v>3300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3200</v>
       </c>
       <c r="G44" s="3">
         <v>3200</v>
       </c>
       <c r="H44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2261,8 +2360,8 @@
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2273,8 +2372,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -2288,55 +2387,61 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E46" s="3">
         <v>4900</v>
       </c>
       <c r="F46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>3300</v>
       </c>
       <c r="L46" s="3">
         <v>3300</v>
       </c>
       <c r="M46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2502,7 @@
         <v>1500</v>
       </c>
       <c r="F48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G48" s="3">
         <v>1600</v>
@@ -2406,19 +2514,19 @@
         <v>1600</v>
       </c>
       <c r="J48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K48" s="3">
         <v>1700</v>
       </c>
       <c r="L48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M48" s="3">
         <v>1800</v>
       </c>
       <c r="N48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="O48" s="3">
         <v>1900</v>
@@ -2427,10 +2535,13 @@
         <v>1900</v>
       </c>
       <c r="Q48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,19 +2687,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2591,7 +2711,7 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -2600,11 +2720,11 @@
         <v>600</v>
       </c>
       <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
@@ -2612,13 +2732,16 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="E54" s="3">
         <v>6900</v>
       </c>
       <c r="F54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G54" s="3">
         <v>6800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5700</v>
       </c>
       <c r="L54" s="3">
         <v>5700</v>
       </c>
       <c r="M54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N54" s="3">
         <v>5900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,34 +2879,35 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1300</v>
       </c>
       <c r="I57" s="3">
         <v>1300</v>
       </c>
       <c r="J57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1300</v>
       </c>
       <c r="L57" s="3">
         <v>1300</v>
@@ -2788,16 +2919,19 @@
         <v>1300</v>
       </c>
       <c r="O57" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="P57" s="3">
         <v>1000</v>
       </c>
       <c r="Q57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,31 +2939,31 @@
         <v>1200</v>
       </c>
       <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2000</v>
       </c>
       <c r="J58" s="3">
         <v>2000</v>
       </c>
       <c r="K58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>800</v>
@@ -2841,10 +2975,13 @@
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2870,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -2890,28 +3027,31 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3900</v>
       </c>
       <c r="G60" s="3">
         <v>3900</v>
       </c>
       <c r="H60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I60" s="3">
         <v>3100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3200</v>
       </c>
       <c r="J60" s="3">
         <v>3200</v>
@@ -2920,57 +3060,60 @@
         <v>3200</v>
       </c>
       <c r="L60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M60" s="3">
         <v>3300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2200</v>
       </c>
       <c r="N60" s="3">
         <v>2200</v>
       </c>
       <c r="O60" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="P60" s="3">
         <v>1900</v>
       </c>
       <c r="Q60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1500</v>
       </c>
       <c r="J61" s="3">
         <v>1500</v>
       </c>
       <c r="K61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L61" s="3">
         <v>1700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>2800</v>
       </c>
       <c r="N61" s="3">
         <v>2800</v>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5600</v>
       </c>
       <c r="F66" s="3">
         <v>5600</v>
       </c>
       <c r="G66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H66" s="3">
         <v>5700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4800</v>
       </c>
       <c r="I66" s="3">
         <v>4800</v>
       </c>
       <c r="J66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>4700</v>
       </c>
       <c r="P66" s="3">
         <v>4700</v>
       </c>
       <c r="Q66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,22 +3597,25 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1300</v>
       </c>
       <c r="H72" s="3">
         <v>-1300</v>
@@ -3450,16 +3624,16 @@
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-600</v>
       </c>
       <c r="N72" s="3">
         <v>-600</v>
@@ -3468,13 +3642,16 @@
         <v>-600</v>
       </c>
       <c r="P72" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="Q72" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>800</v>
       </c>
       <c r="I76" s="3">
         <v>800</v>
       </c>
       <c r="J76" s="3">
+        <v>800</v>
+      </c>
+      <c r="K76" s="3">
         <v>700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>800</v>
       </c>
       <c r="L76" s="3">
         <v>800</v>
       </c>
       <c r="M76" s="3">
+        <v>800</v>
+      </c>
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
-      </c>
-      <c r="P76" s="3">
-        <v>800</v>
       </c>
       <c r="Q76" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,14 +3964,14 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3787,28 +3982,31 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,34 +4322,37 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
         <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4147,16 +4364,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4200,12 +4421,12 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4215,14 +4436,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,26 +4542,29 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4357,13 +4587,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,35 +4812,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4611,13 +4857,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,25 +4912,28 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -4699,15 +4951,18 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>STCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,173 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>1600</v>
       </c>
       <c r="P8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2000</v>
       </c>
       <c r="F9" s="3">
         <v>2000</v>
       </c>
       <c r="G9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1200</v>
       </c>
       <c r="K9" s="3">
         <v>1200</v>
       </c>
       <c r="L9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1200</v>
       </c>
       <c r="O9" s="3">
         <v>1200</v>
@@ -833,63 +840,69 @@
         <v>1200</v>
       </c>
       <c r="Q9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,28 +921,29 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -937,11 +951,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1028,20 +1048,20 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,43 +1151,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1600</v>
       </c>
       <c r="O17" s="3">
         <v>1600</v>
@@ -1170,63 +1197,69 @@
         <v>1600</v>
       </c>
       <c r="Q17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1281,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1295,63 +1329,69 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1360,7 +1400,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1395,66 +1435,72 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1466,11 +1512,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1478,25 +1524,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,26 +1594,29 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1575,46 +1627,49 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1625,28 +1680,31 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1730,8 +1791,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1881,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1895,26 +1965,29 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1925,28 +1998,31 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,26 +2071,29 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2025,83 +2104,89 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,25 +2236,25 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2182,16 +2269,19 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,108 +2330,117 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1000</v>
       </c>
       <c r="J43" s="3">
         <v>1000</v>
       </c>
       <c r="K43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>900</v>
       </c>
       <c r="O43" s="3">
         <v>900</v>
       </c>
       <c r="P43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q43" s="3">
         <v>800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>600</v>
       </c>
       <c r="R43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
         <v>3200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3200</v>
       </c>
       <c r="H44" s="3">
         <v>3200</v>
       </c>
       <c r="I44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2363,8 +2462,8 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2375,8 +2474,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
@@ -2390,58 +2489,64 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>4900</v>
       </c>
       <c r="F46" s="3">
         <v>4900</v>
       </c>
       <c r="G46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H46" s="3">
         <v>4800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>3300</v>
       </c>
       <c r="M46" s="3">
         <v>3300</v>
       </c>
       <c r="N46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2505,7 +2613,7 @@
         <v>1500</v>
       </c>
       <c r="G48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H48" s="3">
         <v>1600</v>
@@ -2517,19 +2625,19 @@
         <v>1600</v>
       </c>
       <c r="K48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L48" s="3">
         <v>1700</v>
       </c>
       <c r="M48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N48" s="3">
         <v>1800</v>
       </c>
       <c r="O48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="P48" s="3">
         <v>1900</v>
@@ -2538,10 +2646,13 @@
         <v>1900</v>
       </c>
       <c r="R48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,22 +2807,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2714,7 +2834,7 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2723,11 +2843,11 @@
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
@@ -2735,13 +2855,16 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>6900</v>
       </c>
       <c r="F54" s="3">
         <v>6900</v>
       </c>
       <c r="G54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H54" s="3">
         <v>6800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5700</v>
       </c>
       <c r="M54" s="3">
         <v>5700</v>
       </c>
       <c r="N54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O54" s="3">
         <v>5900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,37 +3010,38 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1300</v>
       </c>
       <c r="J57" s="3">
         <v>1300</v>
       </c>
       <c r="K57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1300</v>
       </c>
       <c r="M57" s="3">
         <v>1300</v>
@@ -2922,16 +3053,19 @@
         <v>1300</v>
       </c>
       <c r="P57" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q57" s="3">
         <v>1000</v>
       </c>
       <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,31 +3076,31 @@
         <v>1200</v>
       </c>
       <c r="F58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2000</v>
       </c>
       <c r="K58" s="3">
         <v>2000</v>
       </c>
       <c r="L58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
@@ -2978,10 +3112,13 @@
         <v>800</v>
       </c>
       <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3010,16 +3147,16 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3030,31 +3167,34 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3900</v>
       </c>
       <c r="H60" s="3">
         <v>3900</v>
       </c>
       <c r="I60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J60" s="3">
         <v>3100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3200</v>
       </c>
       <c r="K60" s="3">
         <v>3200</v>
@@ -3063,60 +3203,63 @@
         <v>3200</v>
       </c>
       <c r="M60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N60" s="3">
         <v>3300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2200</v>
       </c>
       <c r="O60" s="3">
         <v>2200</v>
       </c>
       <c r="P60" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="Q60" s="3">
         <v>1900</v>
       </c>
       <c r="R60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1500</v>
       </c>
       <c r="K61" s="3">
         <v>1500</v>
       </c>
       <c r="L61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M61" s="3">
         <v>1700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>2800</v>
       </c>
       <c r="O61" s="3">
         <v>2800</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5600</v>
       </c>
       <c r="G66" s="3">
         <v>5600</v>
       </c>
       <c r="H66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I66" s="3">
         <v>5700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4800</v>
       </c>
       <c r="J66" s="3">
         <v>4800</v>
       </c>
       <c r="K66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>4700</v>
       </c>
       <c r="Q66" s="3">
         <v>4700</v>
       </c>
       <c r="R66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,25 +3771,28 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1300</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
@@ -3627,16 +3801,16 @@
         <v>-1300</v>
       </c>
       <c r="K72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-600</v>
       </c>
       <c r="O72" s="3">
         <v>-600</v>
@@ -3645,13 +3819,16 @@
         <v>-600</v>
       </c>
       <c r="Q72" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="R72" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>800</v>
       </c>
       <c r="J76" s="3">
         <v>800</v>
       </c>
       <c r="K76" s="3">
+        <v>800</v>
+      </c>
+      <c r="L76" s="3">
         <v>700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>800</v>
       </c>
       <c r="M76" s="3">
         <v>800</v>
       </c>
       <c r="N76" s="3">
+        <v>800</v>
+      </c>
+      <c r="O76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>800</v>
       </c>
       <c r="R76" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,81 +4089,87 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3985,28 +4180,31 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,28 +4551,28 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4367,16 +4584,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4424,12 +4645,12 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4439,14 +4660,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,20 +4784,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4590,13 +4820,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,38 +5058,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4860,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,28 +5164,31 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4954,15 +5206,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>STCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,90 +755,93 @@
         <v>2200</v>
       </c>
       <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1600</v>
       </c>
       <c r="P8" s="3">
         <v>1600</v>
       </c>
       <c r="Q8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2000</v>
       </c>
       <c r="G9" s="3">
         <v>2000</v>
       </c>
       <c r="H9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1200</v>
       </c>
       <c r="L9" s="3">
         <v>1200</v>
       </c>
       <c r="M9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1200</v>
       </c>
       <c r="P9" s="3">
         <v>1200</v>
@@ -843,66 +850,72 @@
         <v>1200</v>
       </c>
       <c r="R9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
       <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,20 +947,20 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -954,11 +968,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1051,20 +1071,20 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,46 +1178,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1600</v>
       </c>
       <c r="P17" s="3">
         <v>1600</v>
@@ -1200,66 +1227,72 @@
         <v>1600</v>
       </c>
       <c r="R17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1318,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1403,7 +1443,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1438,72 +1478,78 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1515,11 +1561,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1527,25 +1573,28 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,29 +1646,32 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1630,49 +1682,52 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1683,28 +1738,31 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1794,8 +1855,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1954,11 +2024,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -1968,29 +2038,32 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2001,28 +2074,31 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,29 +2150,32 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2107,86 +2186,92 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,37 +2313,38 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2272,16 +2359,19 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,132 +2435,138 @@
         <v>1400</v>
       </c>
       <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1000</v>
       </c>
       <c r="K43" s="3">
         <v>1000</v>
       </c>
       <c r="L43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>900</v>
       </c>
       <c r="P43" s="3">
         <v>900</v>
       </c>
       <c r="Q43" s="3">
+        <v>900</v>
+      </c>
+      <c r="R43" s="3">
         <v>800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>600</v>
       </c>
       <c r="S43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3200</v>
       </c>
       <c r="I44" s="3">
         <v>3200</v>
       </c>
       <c r="J44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2477,8 +2576,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4900</v>
       </c>
       <c r="G46" s="3">
         <v>4900</v>
       </c>
       <c r="H46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3300</v>
       </c>
       <c r="N46" s="3">
         <v>3300</v>
       </c>
       <c r="O46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2616,7 +2724,7 @@
         <v>1500</v>
       </c>
       <c r="H48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I48" s="3">
         <v>1600</v>
@@ -2628,19 +2736,19 @@
         <v>1600</v>
       </c>
       <c r="L48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M48" s="3">
         <v>1700</v>
       </c>
       <c r="N48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="O48" s="3">
         <v>1800</v>
       </c>
       <c r="P48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="Q48" s="3">
         <v>1900</v>
@@ -2649,10 +2757,13 @@
         <v>1900</v>
       </c>
       <c r="S48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,25 +2927,28 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2837,7 +2957,7 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
@@ -2846,11 +2966,11 @@
         <v>600</v>
       </c>
       <c r="N52" s="3">
+        <v>600</v>
+      </c>
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
-        <v>100</v>
-      </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
@@ -2858,13 +2978,16 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>6900</v>
       </c>
       <c r="G54" s="3">
         <v>6900</v>
       </c>
       <c r="H54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I54" s="3">
         <v>6800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5700</v>
       </c>
       <c r="N54" s="3">
         <v>5700</v>
       </c>
       <c r="O54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P54" s="3">
         <v>5900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,40 +3141,41 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1300</v>
       </c>
       <c r="K57" s="3">
         <v>1300</v>
       </c>
       <c r="L57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1300</v>
       </c>
       <c r="N57" s="3">
         <v>1300</v>
@@ -3056,21 +3187,24 @@
         <v>1300</v>
       </c>
       <c r="Q57" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="R57" s="3">
         <v>1000</v>
       </c>
       <c r="S57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
@@ -3079,31 +3213,31 @@
         <v>1200</v>
       </c>
       <c r="G58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2000</v>
       </c>
       <c r="L58" s="3">
         <v>2000</v>
       </c>
       <c r="M58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
@@ -3115,10 +3249,13 @@
         <v>800</v>
       </c>
       <c r="S58" s="3">
+        <v>800</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3150,16 +3287,16 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,25 +3319,25 @@
         <v>2000</v>
       </c>
       <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3900</v>
       </c>
       <c r="I60" s="3">
         <v>3900</v>
       </c>
       <c r="J60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3200</v>
       </c>
       <c r="L60" s="3">
         <v>3200</v>
@@ -3206,63 +3346,66 @@
         <v>3200</v>
       </c>
       <c r="N60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O60" s="3">
         <v>3300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2200</v>
       </c>
       <c r="P60" s="3">
         <v>2200</v>
       </c>
       <c r="Q60" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="R60" s="3">
         <v>1900</v>
       </c>
       <c r="S60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1500</v>
       </c>
       <c r="L61" s="3">
         <v>1500</v>
       </c>
       <c r="M61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N61" s="3">
         <v>1700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1600</v>
-      </c>
-      <c r="O61" s="3">
-        <v>2800</v>
       </c>
       <c r="P61" s="3">
         <v>2800</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5600</v>
       </c>
       <c r="H66" s="3">
         <v>5600</v>
       </c>
       <c r="I66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J66" s="3">
         <v>5700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4800</v>
       </c>
       <c r="K66" s="3">
         <v>4800</v>
       </c>
       <c r="L66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>4700</v>
       </c>
       <c r="R66" s="3">
         <v>4700</v>
       </c>
       <c r="S66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="T66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,28 +3945,31 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1300</v>
       </c>
       <c r="J72" s="3">
         <v>-1300</v>
@@ -3804,16 +3978,16 @@
         <v>-1300</v>
       </c>
       <c r="L72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-600</v>
       </c>
       <c r="P72" s="3">
         <v>-600</v>
@@ -3822,13 +3996,16 @@
         <v>-600</v>
       </c>
       <c r="R72" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="S72" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>800</v>
       </c>
       <c r="K76" s="3">
         <v>800</v>
       </c>
       <c r="L76" s="3">
+        <v>800</v>
+      </c>
+      <c r="M76" s="3">
         <v>700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>800</v>
       </c>
       <c r="N76" s="3">
         <v>800</v>
       </c>
       <c r="O76" s="3">
+        <v>800</v>
+      </c>
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
-      </c>
-      <c r="R76" s="3">
-        <v>800</v>
       </c>
       <c r="S76" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,87 +4281,93 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -4183,28 +4378,31 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,40 +4756,43 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4587,16 +4804,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4648,12 +4869,12 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,20 +5017,20 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4823,13 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,41 +5304,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,31 +5416,34 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>STCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,170 +678,197 @@
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1600</v>
       </c>
       <c r="R8" s="3">
         <v>1800</v>
       </c>
       <c r="S8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1800</v>
       </c>
       <c r="J9" s="3">
         <v>1600</v>
       </c>
       <c r="K9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O9" s="3">
         <v>1300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1800</v>
       </c>
       <c r="P9" s="3">
         <v>1200</v>
@@ -850,16 +877,28 @@
         <v>1200</v>
       </c>
       <c r="R9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="X9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,55 +906,67 @@
         <v>800</v>
       </c>
       <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>700</v>
+      </c>
+      <c r="O10" s="3">
+        <v>800</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
+        <v>500</v>
+      </c>
+      <c r="S10" s="3">
         <v>-300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +987,12 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +1005,8 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -959,11 +1014,11 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
@@ -972,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
@@ -983,8 +1038,8 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
+      <c r="R12" s="3">
+        <v>100</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
@@ -992,8 +1047,20 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1115,20 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,28 +1136,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1092,11 +1171,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1183,20 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1251,20 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,87 +1282,103 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2500</v>
       </c>
       <c r="P17" s="3">
         <v>1600</v>
       </c>
       <c r="Q17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>300</v>
@@ -1271,28 +1390,40 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1444,12 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1355,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1367,66 +1502,90 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,25 +1596,25 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1481,120 +1640,156 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1844,20 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,55 +1865,67 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,55 +1933,67 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +2048,20 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1858,23 +2101,35 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2184,20 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2252,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2027,22 +2306,34 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,55 +2341,67 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2456,20 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,116 +2477,140 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2631,12 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,22 +2657,26 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2338,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2350,19 +2697,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2370,8 +2717,20 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,120 +2785,156 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1600</v>
       </c>
       <c r="J43" s="3">
         <v>1700</v>
       </c>
       <c r="K43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>900</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>900</v>
       </c>
       <c r="Q43" s="3">
         <v>900</v>
       </c>
       <c r="R43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
+        <v>900</v>
+      </c>
+      <c r="U43" s="3">
+        <v>900</v>
+      </c>
+      <c r="V43" s="3">
+        <v>800</v>
+      </c>
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="X43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E44" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="F44" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="G44" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H44" s="3">
         <v>3100</v>
       </c>
       <c r="I44" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="J44" s="3">
         <v>3200</v>
       </c>
       <c r="K44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="S44" s="3">
         <v>2500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="T44" s="3">
         <v>2900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="U44" s="3">
         <v>2800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="V44" s="3">
         <v>2600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="W44" s="3">
         <v>2700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="X44" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2564,43 +2959,55 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="E46" s="3">
         <v>4400</v>
@@ -2609,49 +3016,61 @@
         <v>4800</v>
       </c>
       <c r="G46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>3600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>3200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>3100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>3300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>3800</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>3700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>3500</v>
       </c>
       <c r="S46" s="3">
         <v>3300</v>
       </c>
       <c r="T46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V46" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X46" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +3125,88 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F48" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H48" s="3">
         <v>1500</v>
       </c>
       <c r="I48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1900</v>
       </c>
       <c r="T48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3261,20 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+      <c r="X49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3329,20 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3397,88 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3533,88 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>6400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>6900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>6900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>6800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>7000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>5400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>5900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>5800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="V54" s="3">
         <v>5600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="W54" s="3">
         <v>5500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="X54" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3635,12 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,43 +3661,47 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1600</v>
       </c>
       <c r="K57" s="3">
         <v>1300</v>
       </c>
       <c r="L57" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M57" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="N57" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="O57" s="3">
         <v>1300</v>
@@ -3187,75 +3710,99 @@
         <v>1300</v>
       </c>
       <c r="Q57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G58" s="3">
         <v>1200</v>
       </c>
       <c r="H58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="X58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3290,16 +3837,16 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3308,122 +3855,158 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>1700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>1700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="R61" s="3">
         <v>1700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="S61" s="3">
         <v>1600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>2800</v>
-      </c>
-      <c r="S61" s="3">
-        <v>2800</v>
       </c>
       <c r="T61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +4061,20 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +4129,20 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4197,20 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4265,88 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>4900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>5000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>4700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="W66" s="3">
         <v>4700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="X66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4367,12 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4427,20 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4495,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4563,20 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,34 +4631,46 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1300</v>
       </c>
       <c r="L72" s="3">
         <v>-1300</v>
@@ -3987,25 +4682,37 @@
         <v>-1300</v>
       </c>
       <c r="O72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>-700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4767,20 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4835,20 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4903,88 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>800</v>
       </c>
       <c r="O76" s="3">
         <v>800</v>
       </c>
       <c r="P76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q76" s="3">
+        <v>700</v>
+      </c>
+      <c r="R76" s="3">
         <v>800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>900</v>
       </c>
       <c r="S76" s="3">
         <v>800</v>
       </c>
       <c r="T76" s="3">
+        <v>900</v>
+      </c>
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>900</v>
+      </c>
+      <c r="W76" s="3">
+        <v>800</v>
+      </c>
+      <c r="X76" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +5039,93 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,55 +5133,67 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5214,12 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +5274,20 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5342,20 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5410,20 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5478,20 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5546,20 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5614,88 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5716,12 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,29 +5755,41 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5844,20 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5912,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5017,32 +5936,32 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5056,13 +5975,25 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +6014,12 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +6074,20 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +6142,20 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +6210,20 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +6278,88 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +6414,20 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,34 +6435,34 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F102" s="3">
+        <v>600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5464,15 +6471,27 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>STCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,346 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>1800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>1300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1800</v>
+        <v>3100</v>
       </c>
       <c r="E9" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="F9" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="3">
         <v>1800</v>
       </c>
       <c r="H9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2000</v>
       </c>
       <c r="L9" s="3">
         <v>2000</v>
       </c>
       <c r="M9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1200</v>
       </c>
       <c r="R9" s="3">
         <v>1300</v>
       </c>
       <c r="S9" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="T9" s="3">
         <v>1200</v>
       </c>
       <c r="U9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
+        <v>800</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>700</v>
       </c>
       <c r="O10" s="3">
+        <v>600</v>
+      </c>
+      <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>700</v>
+      </c>
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>-300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1029,11 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,8 +1058,8 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
@@ -1035,11 +1076,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
@@ -1047,8 +1088,8 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
+      <c r="U12" s="3">
+        <v>100</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
@@ -1059,8 +1100,17 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,64 +1177,73 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1195,8 +1254,17 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1331,17 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1363,165 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2400</v>
       </c>
       <c r="L17" s="3">
         <v>2500</v>
       </c>
       <c r="M17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>400</v>
       </c>
       <c r="K18" s="3">
         <v>300</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,29 +1546,32 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1502,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1511,81 +1612,99 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,22 +1727,22 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1652,8 +1771,17 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,67 +1789,76 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1741,55 +1878,64 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +2002,171 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2233,17 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2113,14 +2295,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2310,17 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2387,17 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,29 +2464,38 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2318,90 +2527,108 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2695,176 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2889,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,37 +2918,40 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2700,19 +2960,19 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2721,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2729,8 +2989,17 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,144 +3066,171 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1700</v>
       </c>
       <c r="K43" s="3">
         <v>1400</v>
       </c>
       <c r="L43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>900</v>
       </c>
       <c r="R43" s="3">
         <v>1000</v>
       </c>
       <c r="S43" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T43" s="3">
         <v>900</v>
       </c>
       <c r="U43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="V43" s="3">
         <v>800</v>
       </c>
       <c r="W43" s="3">
+        <v>900</v>
+      </c>
+      <c r="X43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="AA43" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>2900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3100</v>
       </c>
       <c r="M44" s="3">
         <v>3200</v>
       </c>
       <c r="N44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P44" s="3">
         <v>3200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R44" s="3">
         <v>2600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>2100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>2200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>2300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>2500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="W44" s="3">
         <v>2900</v>
-      </c>
-      <c r="U44" s="3">
-        <v>2800</v>
-      </c>
-      <c r="V44" s="3">
-        <v>2600</v>
-      </c>
-      <c r="W44" s="3">
-        <v>2700</v>
       </c>
       <c r="X44" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2971,29 +3267,29 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
@@ -3001,76 +3297,94 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>4900</v>
       </c>
       <c r="M46" s="3">
         <v>4800</v>
       </c>
       <c r="N46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>3100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>3300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>3300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>3800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>3700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>3500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>3300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3451,17 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,16 +3475,16 @@
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>1400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>1500</v>
@@ -3170,43 +3493,52 @@
         <v>1500</v>
       </c>
       <c r="M48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="N48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="P48" s="3">
         <v>1600</v>
       </c>
       <c r="Q48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>1700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>1800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>1800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Z48" s="3">
         <v>1900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="AA48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3605,17 @@
       <c r="X49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3682,17 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3759,17 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,22 +3780,22 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3445,40 +3804,49 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
-        <v>100</v>
-      </c>
-      <c r="U52" s="3">
-        <v>100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>100</v>
-      </c>
       <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="AA52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3913,94 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G54" s="3">
         <v>6400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>6100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>6300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>6500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>6700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>6900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>6900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>6800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>7000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>5400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>5700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>5700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>5900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>5800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>5600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>5500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +4025,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,52 +4054,55 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
       </c>
       <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1200</v>
       </c>
       <c r="R57" s="3">
         <v>1300</v>
@@ -3719,101 +4111,119 @@
         <v>1300</v>
       </c>
       <c r="T57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="U57" s="3">
         <v>1300</v>
       </c>
       <c r="V57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F58" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>1200</v>
       </c>
       <c r="H58" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J58" s="3">
         <v>1200</v>
       </c>
       <c r="K58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1900</v>
       </c>
       <c r="S58" s="3">
         <v>2000</v>
       </c>
       <c r="T58" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="U58" s="3">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="V58" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="W58" s="3">
         <v>800</v>
       </c>
       <c r="X58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3849,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3864,30 +4274,39 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>3900</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="F60" s="3">
         <v>2000</v>
       </c>
       <c r="G60" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="H60" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="I60" s="3">
         <v>2000</v>
@@ -3896,108 +4315,117 @@
         <v>2300</v>
       </c>
       <c r="K60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>3900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="F61" s="3">
         <v>2500</v>
       </c>
       <c r="G61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>2800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>2800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>1700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>1800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1500</v>
       </c>
       <c r="R61" s="3">
         <v>1700</v>
       </c>
       <c r="S61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V61" s="3">
         <v>1600</v>
-      </c>
-      <c r="T61" s="3">
-        <v>2800</v>
-      </c>
-      <c r="U61" s="3">
-        <v>2800</v>
-      </c>
-      <c r="V61" s="3">
-        <v>2800</v>
       </c>
       <c r="W61" s="3">
         <v>2800</v>
@@ -4005,8 +4433,17 @@
       <c r="X61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4510,17 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4587,17 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4664,17 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4741,94 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>4800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>4700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>4900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>5000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>4900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>5000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>4700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>4700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4853,11 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4924,17 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +5001,17 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +5078,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +5155,94 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1300</v>
       </c>
       <c r="O72" s="3">
         <v>-1300</v>
       </c>
       <c r="P72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1400</v>
       </c>
       <c r="R72" s="3">
         <v>-1300</v>
       </c>
       <c r="S72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5309,17 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5386,17 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,52 +5463,61 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H76" s="3">
         <v>2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>700</v>
       </c>
       <c r="R76" s="3">
         <v>800</v>
@@ -4969,22 +5526,31 @@
         <v>800</v>
       </c>
       <c r="T76" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="U76" s="3">
         <v>800</v>
       </c>
       <c r="V76" s="3">
+        <v>800</v>
+      </c>
+      <c r="W76" s="3">
         <v>900</v>
-      </c>
-      <c r="W76" s="3">
-        <v>800</v>
       </c>
       <c r="X76" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5617,176 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5811,11 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5882,17 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5959,17 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +6036,17 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +6113,17 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +6190,17 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6267,94 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6379,11 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,29 +6429,38 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6527,17 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6604,17 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5936,41 +6625,41 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5987,13 +6676,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6716,11 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6787,17 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6864,17 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6941,17 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,62 +7018,71 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6353,13 +7090,22 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,52 +7172,61 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6483,15 +7238,24 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>STCC</t>
   </si>
@@ -1371,8 +1371,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>3600</v>
       </c>
       <c r="E17" s="3">
         <v>2900</v>
@@ -1448,8 +1448,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1554,8 +1554,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1631,8 +1631,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -2016,8 +2016,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2093,8 +2093,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2478,8 +2478,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2555,8 +2555,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2709,8 +2709,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -5713,8 +5713,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>STCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,254 +665,261 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3800</v>
+        <v>4700</v>
       </c>
       <c r="E8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2200</v>
       </c>
       <c r="L8" s="3">
         <v>2200</v>
       </c>
       <c r="M8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1600</v>
       </c>
       <c r="X8" s="3">
         <v>1600</v>
       </c>
       <c r="Y8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3100</v>
+        <v>4100</v>
       </c>
       <c r="E9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1800</v>
       </c>
       <c r="J9" s="3">
         <v>1800</v>
       </c>
       <c r="K9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2000</v>
       </c>
       <c r="O9" s="3">
         <v>2000</v>
       </c>
       <c r="P9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1200</v>
       </c>
       <c r="T9" s="3">
         <v>1200</v>
       </c>
       <c r="U9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V9" s="3">
         <v>1300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1800</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1200</v>
       </c>
       <c r="X9" s="3">
         <v>1200</v>
@@ -921,90 +928,96 @@
         <v>1200</v>
       </c>
       <c r="Z9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>800</v>
       </c>
       <c r="G10" s="3">
         <v>800</v>
       </c>
       <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>400</v>
       </c>
       <c r="Y10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,20 +1081,20 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
@@ -1088,11 +1102,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
-        <v>100</v>
-      </c>
-      <c r="V12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V12" s="3">
+        <v>100</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,29 +1203,32 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1221,8 +1241,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1233,20 +1253,20 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,70 +1392,71 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="E17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2300</v>
       </c>
       <c r="J17" s="3">
         <v>2300</v>
       </c>
       <c r="K17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1600</v>
       </c>
       <c r="X17" s="3">
         <v>1600</v>
@@ -1438,90 +1465,96 @@
         <v>1600</v>
       </c>
       <c r="Z17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>300</v>
+      </c>
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>100</v>
-      </c>
       <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1570,11 +1604,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1612,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>400</v>
+      </c>
+      <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
-        <v>600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>300</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
       <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1736,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1745,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>100</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,31 +1915,31 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>100</v>
-      </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1905,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1917,25 +1963,28 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="3">
         <v>100</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,53 +2060,56 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -2068,73 +2120,76 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -2145,28 +2200,31 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2304,8 +2365,8 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2494,11 +2564,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2536,11 +2606,11 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2550,53 +2620,56 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2607,28 +2680,31 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,53 +2780,56 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2761,110 +2840,116 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,61 +3007,62 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2990,16 +3077,19 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,162 +3165,171 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1400</v>
       </c>
       <c r="L43" s="3">
         <v>1400</v>
       </c>
       <c r="M43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1000</v>
       </c>
       <c r="S43" s="3">
         <v>1000</v>
       </c>
       <c r="T43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
-      </c>
-      <c r="W43" s="3">
-        <v>900</v>
       </c>
       <c r="X43" s="3">
         <v>900</v>
       </c>
       <c r="Y43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z43" s="3">
         <v>800</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>600</v>
       </c>
       <c r="AA43" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E44" s="3">
         <v>4300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3200</v>
       </c>
       <c r="Q44" s="3">
         <v>3200</v>
       </c>
       <c r="R44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S44" s="3">
         <v>2600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3276,12 +3375,12 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3291,8 +3390,8 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
@@ -3306,85 +3405,91 @@
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>4900</v>
       </c>
       <c r="O46" s="3">
         <v>4900</v>
       </c>
       <c r="P46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3100</v>
-      </c>
-      <c r="U46" s="3">
-        <v>3300</v>
       </c>
       <c r="V46" s="3">
         <v>3300</v>
       </c>
       <c r="W46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X46" s="3">
         <v>3800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,13 +3565,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
@@ -3484,10 +3592,10 @@
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1500</v>
       </c>
       <c r="L48" s="3">
         <v>1500</v>
@@ -3502,7 +3610,7 @@
         <v>1500</v>
       </c>
       <c r="P48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="Q48" s="3">
         <v>1600</v>
@@ -3514,19 +3622,19 @@
         <v>1600</v>
       </c>
       <c r="T48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="U48" s="3">
         <v>1700</v>
       </c>
       <c r="V48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="W48" s="3">
         <v>1800</v>
       </c>
       <c r="X48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="Y48" s="3">
         <v>1900</v>
@@ -3535,10 +3643,13 @@
         <v>1900</v>
       </c>
       <c r="AA48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3789,7 +3909,7 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -3798,19 +3918,19 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -3819,7 +3939,7 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>600</v>
@@ -3828,11 +3948,11 @@
         <v>600</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="W52" s="3">
-        <v>100</v>
-      </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
@@ -3840,13 +3960,16 @@
         <v>100</v>
       </c>
       <c r="Z52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>6900</v>
       </c>
       <c r="O54" s="3">
         <v>6900</v>
       </c>
       <c r="P54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>6800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>5700</v>
       </c>
       <c r="V54" s="3">
         <v>5700</v>
       </c>
       <c r="W54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="X54" s="3">
         <v>5900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,64 +4187,65 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
       </c>
       <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1300</v>
       </c>
       <c r="S57" s="3">
         <v>1300</v>
       </c>
       <c r="T57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U57" s="3">
         <v>1200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1300</v>
       </c>
       <c r="V57" s="3">
         <v>1300</v>
@@ -4126,45 +4257,48 @@
         <v>1300</v>
       </c>
       <c r="Y57" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Z57" s="3">
         <v>1000</v>
       </c>
       <c r="AA57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1200</v>
       </c>
       <c r="M58" s="3">
         <v>1200</v>
@@ -4173,31 +4307,31 @@
         <v>1200</v>
       </c>
       <c r="O58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2000</v>
       </c>
       <c r="T58" s="3">
         <v>2000</v>
       </c>
       <c r="U58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V58" s="3">
         <v>1900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>800</v>
       </c>
       <c r="X58" s="3">
         <v>800</v>
@@ -4209,15 +4343,18 @@
         <v>800</v>
       </c>
       <c r="AA58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB58" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -4226,7 +4363,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -4268,16 +4405,16 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
@@ -4288,58 +4425,61 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2000</v>
       </c>
       <c r="L60" s="3">
         <v>2000</v>
       </c>
       <c r="M60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3900</v>
       </c>
       <c r="Q60" s="3">
         <v>3900</v>
       </c>
       <c r="R60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S60" s="3">
         <v>3100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3200</v>
       </c>
       <c r="T60" s="3">
         <v>3200</v>
@@ -4348,87 +4488,90 @@
         <v>3200</v>
       </c>
       <c r="V60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W60" s="3">
         <v>3300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2200</v>
       </c>
       <c r="X60" s="3">
         <v>2200</v>
       </c>
       <c r="Y60" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="Z60" s="3">
         <v>1900</v>
       </c>
       <c r="AA60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1700</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1500</v>
       </c>
       <c r="T61" s="3">
         <v>1500</v>
       </c>
       <c r="U61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V61" s="3">
         <v>1700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1600</v>
-      </c>
-      <c r="W61" s="3">
-        <v>2800</v>
       </c>
       <c r="X61" s="3">
         <v>2800</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4800</v>
       </c>
       <c r="K66" s="3">
         <v>4800</v>
       </c>
       <c r="L66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>5600</v>
       </c>
       <c r="P66" s="3">
         <v>5600</v>
       </c>
       <c r="Q66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R66" s="3">
         <v>5700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>4800</v>
       </c>
       <c r="S66" s="3">
         <v>4800</v>
       </c>
       <c r="T66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U66" s="3">
         <v>4700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5000</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>4700</v>
       </c>
       <c r="Z66" s="3">
         <v>4700</v>
       </c>
       <c r="AA66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="AB66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,52 +5335,55 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1300</v>
       </c>
       <c r="R72" s="3">
         <v>-1300</v>
@@ -5218,16 +5392,16 @@
         <v>-1300</v>
       </c>
       <c r="T72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-600</v>
       </c>
       <c r="X72" s="3">
         <v>-600</v>
@@ -5236,13 +5410,16 @@
         <v>-600</v>
       </c>
       <c r="Z72" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="AA72" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2300</v>
       </c>
       <c r="G76" s="3">
         <v>2300</v>
       </c>
       <c r="H76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>800</v>
       </c>
       <c r="S76" s="3">
         <v>800</v>
       </c>
       <c r="T76" s="3">
+        <v>800</v>
+      </c>
+      <c r="U76" s="3">
         <v>700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>800</v>
       </c>
       <c r="V76" s="3">
         <v>800</v>
       </c>
       <c r="W76" s="3">
+        <v>800</v>
+      </c>
+      <c r="X76" s="3">
         <v>900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>900</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>800</v>
       </c>
       <c r="AA76" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,135 +5815,141 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -5765,28 +5960,31 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,13 +6012,14 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>500</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>500</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6438,12 +6659,12 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6634,11 +6864,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6649,20 +6879,20 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6685,13 +6915,16 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,65 +7270,68 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7099,13 +7345,16 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>600</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>
